--- a/artfynd/A 698-2026 artfynd.xlsx
+++ b/artfynd/A 698-2026 artfynd.xlsx
@@ -809,7 +809,7 @@
         <v>130982594</v>
       </c>
       <c r="B3" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/artfynd/A 698-2026 artfynd.xlsx
+++ b/artfynd/A 698-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,6 +909,237 @@
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>131082418</v>
+      </c>
+      <c r="B4" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Öjsjön-Falerum, Sm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>572505</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6447038</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Åtvidaberg</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Gärdserum</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>131082405</v>
+      </c>
+      <c r="B5" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Öjsjön-Falerum, Sm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>572475</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6447038</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Åtvidaberg</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Gärdserum</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Revirparet i del av sitt revir</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
